--- a/KPI月報_6月度.xlsx
+++ b/KPI月報_6月度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S.Matsukawa\Box\共通\KPI月報\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E01476C5-490A-465A-BA99-95F8B3932BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405BD123-841F-4D3D-8C3E-69B7C92CDA2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D9F21D0-F038-4A88-B946-8C10C914E28B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>てすと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2nd commit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C05B3CC-C779-4DA9-9A90-8A0EB09B15B9}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -432,6 +436,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KPI月報_6月度.xlsx
+++ b/KPI月報_6月度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S.Matsukawa\Box\共通\KPI月報\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405BD123-841F-4D3D-8C3E-69B7C92CDA2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E2A434-AB31-46EB-A484-F72B74F8E56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D9F21D0-F038-4A88-B946-8C10C914E28B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>2nd commit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3rd commit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -412,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C05B3CC-C779-4DA9-9A90-8A0EB09B15B9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -444,6 +448,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
